--- a/tests/indicators/s-z/Vwap/Vwap.Calc.xlsx
+++ b/tests/indicators/s-z/Vwap/Vwap.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D9DEA-DC3C-4EA7-B09D-EF19D2376A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BE6F25-21D8-4D97-A7FD-9C16E72310C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VWAP" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -65,6 +65,9 @@
   <si>
     <t>output</t>
   </si>
+  <si>
+    <t>i</t>
+  </si>
 </sst>
 </file>
 
@@ -73,9 +76,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm;@"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -564,7 +567,7 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -573,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -582,26 +585,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -667,11 +670,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm;@"/>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -691,7 +694,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -711,7 +714,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -731,7 +734,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -751,7 +754,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -791,7 +794,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -871,7 +874,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm;@"/>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -949,11 +952,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm;@"/>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -973,7 +976,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -993,7 +996,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1013,7 +1016,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1033,7 +1036,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1073,7 +1076,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1153,7 +1156,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm;@"/>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1230,7 +1233,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{501F71BA-18A1-4FCC-90E3-0E146817884C}" name="testdata7" displayName="testdata7" ref="A1:L392" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{889D8F3A-AF9A-4033-93A3-5C4D261ED899}" name="index" dataDxfId="29" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{889D8F3A-AF9A-4033-93A3-5C4D261ED899}" name="i" dataDxfId="29" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{632A2BEC-6283-4670-881D-D6DEAA01CC0B}" name="date" dataDxfId="28"/>
     <tableColumn id="3" xr3:uid="{8AF1DF14-3CC1-4DCF-876E-CEFD3E3A4ABD}" name="open" dataDxfId="27" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{262905E1-A428-4F3F-9DAA-7CD73224A821}" name="high" dataDxfId="26" dataCellStyle="Currency"/>
@@ -1612,7 +1615,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1627,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1674,7 +1677,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8">
         <v>44180.395833333336</v>
@@ -1723,7 +1726,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>44180.396527777775</v>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8">
         <v>44180.397222222222</v>
@@ -1821,7 +1824,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8">
         <v>44180.397916666669</v>
@@ -1870,7 +1873,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8">
         <v>44180.398611111108</v>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>44180.399305555555</v>
@@ -1968,7 +1971,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>44180.4</v>
@@ -2017,7 +2020,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
         <v>44180.400694444441</v>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>44180.401388888888</v>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>44180.402083333334</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>44180.402777777781</v>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
         <v>44180.40347222222</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>44180.404166666667</v>
@@ -2311,7 +2314,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>44180.404861111114</v>
@@ -2360,7 +2363,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
         <v>44180.405555555553</v>
@@ -2409,7 +2412,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8">
         <v>44180.40625</v>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8">
         <v>44180.406944444447</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
         <v>44180.407638888886</v>
@@ -2556,7 +2559,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
         <v>44180.408333333333</v>
@@ -2605,7 +2608,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>44180.40902777778</v>
@@ -2654,7 +2657,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>44180.409722222219</v>
@@ -2703,7 +2706,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>44180.410416666666</v>
@@ -2752,7 +2755,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>44180.411111111112</v>
@@ -2801,7 +2804,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
         <v>44180.411805555559</v>
@@ -2850,7 +2853,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
         <v>44180.412499999999</v>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
         <v>44180.413194444445</v>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>44180.413888888892</v>
@@ -2997,7 +3000,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>44180.414583333331</v>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
         <v>44180.415277777778</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>44180.415972222225</v>
@@ -3144,7 +3147,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>44180.416666666664</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
         <v>44180.417361111111</v>
@@ -3242,7 +3245,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
         <v>44180.418055555558</v>
@@ -3291,7 +3294,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8">
         <v>44180.418749999997</v>
@@ -3340,7 +3343,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
         <v>44180.419444444444</v>
@@ -3389,7 +3392,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8">
         <v>44180.420138888891</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8">
         <v>44180.42083333333</v>
@@ -3487,7 +3490,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
         <v>44180.421527777777</v>
@@ -3536,7 +3539,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8">
         <v>44180.422222222223</v>
@@ -3585,7 +3588,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8">
         <v>44180.42291666667</v>
@@ -3634,7 +3637,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8">
         <v>44180.423611111109</v>
@@ -3683,7 +3686,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8">
         <v>44180.424305555556</v>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>44180.425000000003</v>
@@ -3781,7 +3784,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8">
         <v>44180.425694444442</v>
@@ -3830,7 +3833,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8">
         <v>44180.426388888889</v>
@@ -3879,7 +3882,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8">
         <v>44180.427083333336</v>
@@ -3928,7 +3931,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8">
         <v>44180.427777777775</v>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8">
         <v>44180.428472222222</v>
@@ -4026,7 +4029,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8">
         <v>44180.429166666669</v>
@@ -4075,7 +4078,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8">
         <v>44180.429861111108</v>
@@ -4124,7 +4127,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8">
         <v>44180.430555555555</v>
@@ -4173,7 +4176,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8">
         <v>44180.431250000001</v>
@@ -4222,7 +4225,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8">
         <v>44180.431944444441</v>
@@ -4271,7 +4274,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8">
         <v>44180.432638888888</v>
@@ -4320,7 +4323,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8">
         <v>44180.433333333334</v>
@@ -4369,7 +4372,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8">
         <v>44180.434027777781</v>
@@ -4418,7 +4421,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8">
         <v>44180.43472222222</v>
@@ -4467,7 +4470,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8">
         <v>44180.435416666667</v>
@@ -4516,7 +4519,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8">
         <v>44180.436111111114</v>
@@ -4565,7 +4568,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8">
         <v>44180.436805555553</v>
@@ -4614,7 +4617,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="8">
         <v>44180.4375</v>
@@ -4663,7 +4666,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="8">
         <v>44180.438194444447</v>
@@ -4712,7 +4715,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8">
         <v>44180.438888888886</v>
@@ -4761,7 +4764,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8">
         <v>44180.439583333333</v>
@@ -4810,7 +4813,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8">
         <v>44180.44027777778</v>
@@ -4859,7 +4862,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8">
         <v>44180.440972222219</v>
@@ -4908,7 +4911,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8">
         <v>44180.441666666666</v>
@@ -4957,7 +4960,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8">
         <v>44180.442361111112</v>
@@ -5006,7 +5009,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8">
         <v>44180.443055555559</v>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8">
         <v>44180.443749999999</v>
@@ -5104,7 +5107,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="8">
         <v>44180.444444444445</v>
@@ -5153,7 +5156,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8">
         <v>44180.445138888892</v>
@@ -5202,7 +5205,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="8">
         <v>44180.445833333331</v>
@@ -5251,7 +5254,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="8">
         <v>44180.446527777778</v>
@@ -5300,7 +5303,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="8">
         <v>44180.447222222225</v>
@@ -5349,7 +5352,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="8">
         <v>44180.447916666664</v>
@@ -5398,7 +5401,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="8">
         <v>44180.448611111111</v>
@@ -5447,7 +5450,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="8">
         <v>44180.449305555558</v>
@@ -5496,7 +5499,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8">
         <v>44180.45</v>
@@ -5545,7 +5548,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8">
         <v>44180.450694444444</v>
@@ -5594,7 +5597,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="8">
         <v>44180.451388888891</v>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8">
         <v>44180.45208333333</v>
@@ -5692,7 +5695,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8">
         <v>44180.452777777777</v>
@@ -5741,7 +5744,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8">
         <v>44180.453472222223</v>
@@ -5790,7 +5793,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="8">
         <v>44180.45416666667</v>
@@ -5839,7 +5842,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8">
         <v>44180.454861111109</v>
@@ -5888,7 +5891,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8">
         <v>44180.455555555556</v>
@@ -5937,7 +5940,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="8">
         <v>44180.456250000003</v>
@@ -5986,7 +5989,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="8">
         <v>44180.456944444442</v>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="8">
         <v>44180.457638888889</v>
@@ -6084,7 +6087,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="8">
         <v>44180.458333333336</v>
@@ -6133,7 +6136,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="8">
         <v>44180.459027777775</v>
@@ -6182,7 +6185,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8">
         <v>44180.459722222222</v>
@@ -6231,7 +6234,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="8">
         <v>44180.460416666669</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="8">
         <v>44180.461111111108</v>
@@ -6329,7 +6332,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="8">
         <v>44180.461805555555</v>
@@ -6378,7 +6381,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="8">
         <v>44180.462500000001</v>
@@ -6427,7 +6430,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="8">
         <v>44180.463194444441</v>
@@ -6476,7 +6479,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="8">
         <v>44180.463888888888</v>
@@ -6525,7 +6528,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="8">
         <v>44180.464583333334</v>
@@ -6574,7 +6577,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8">
         <v>44180.465277777781</v>
@@ -6623,7 +6626,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="8">
         <v>44180.46597222222</v>
@@ -6672,7 +6675,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="8">
         <v>44180.466666666667</v>
@@ -6721,7 +6724,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8">
         <v>44180.467361111114</v>
@@ -6770,7 +6773,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="8">
         <v>44180.468055555553</v>
@@ -6819,7 +6822,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="8">
         <v>44180.46875</v>
@@ -6868,7 +6871,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="8">
         <v>44180.469444444447</v>
@@ -6917,7 +6920,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="8">
         <v>44180.470138888886</v>
@@ -6966,7 +6969,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="8">
         <v>44180.470833333333</v>
@@ -7015,7 +7018,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="8">
         <v>44180.47152777778</v>
@@ -7064,7 +7067,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="8">
         <v>44180.472222222219</v>
@@ -7113,7 +7116,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="8">
         <v>44180.472916666666</v>
@@ -7162,7 +7165,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="8">
         <v>44180.473611111112</v>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="8">
         <v>44180.474305555559</v>
@@ -7260,7 +7263,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="8">
         <v>44180.474999999999</v>
@@ -7309,7 +7312,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="8">
         <v>44180.475694444445</v>
@@ -7358,7 +7361,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="8">
         <v>44180.476388888892</v>
@@ -7407,7 +7410,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="8">
         <v>44180.477083333331</v>
@@ -7456,7 +7459,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="8">
         <v>44180.477777777778</v>
@@ -7505,7 +7508,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="8">
         <v>44180.478472222225</v>
@@ -7554,7 +7557,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="8">
         <v>44180.479166666664</v>
@@ -7603,7 +7606,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="8">
         <v>44180.479861111111</v>
@@ -7652,7 +7655,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="8">
         <v>44180.480555555558</v>
@@ -7701,7 +7704,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="8">
         <v>44180.481249999997</v>
@@ -7750,7 +7753,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="8">
         <v>44180.481944444444</v>
@@ -7799,7 +7802,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="8">
         <v>44180.482638888891</v>
@@ -7848,7 +7851,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="8">
         <v>44180.48333333333</v>
@@ -7897,7 +7900,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="8">
         <v>44180.484027777777</v>
@@ -7946,7 +7949,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="8">
         <v>44180.484722222223</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="8">
         <v>44180.48541666667</v>
@@ -8044,7 +8047,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="8">
         <v>44180.486111111109</v>
@@ -8093,7 +8096,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="8">
         <v>44180.486805555556</v>
@@ -8142,7 +8145,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="8">
         <v>44180.487500000003</v>
@@ -8191,7 +8194,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="8">
         <v>44180.488194444442</v>
@@ -8240,7 +8243,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="8">
         <v>44180.488888888889</v>
@@ -8289,7 +8292,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="8">
         <v>44180.489583333336</v>
@@ -8338,7 +8341,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="8">
         <v>44180.490277777775</v>
@@ -8387,7 +8390,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="8">
         <v>44180.490972222222</v>
@@ -8436,7 +8439,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="8">
         <v>44180.491666666669</v>
@@ -8485,7 +8488,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="8">
         <v>44180.492361111108</v>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="8">
         <v>44180.493055555555</v>
@@ -8583,7 +8586,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="8">
         <v>44180.493750000001</v>
@@ -8632,7 +8635,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="8">
         <v>44180.494444444441</v>
@@ -8681,7 +8684,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="8">
         <v>44180.495138888888</v>
@@ -8730,7 +8733,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="8">
         <v>44180.495833333334</v>
@@ -8779,7 +8782,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="8">
         <v>44180.496527777781</v>
@@ -8828,7 +8831,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="8">
         <v>44180.49722222222</v>
@@ -8877,7 +8880,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="8">
         <v>44180.497916666667</v>
@@ -8926,7 +8929,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="8">
         <v>44180.498611111114</v>
@@ -8975,7 +8978,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="8">
         <v>44180.499305555553</v>
@@ -9024,7 +9027,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="8">
         <v>44180.5</v>
@@ -9073,7 +9076,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="8">
         <v>44180.500694444447</v>
@@ -9122,7 +9125,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="8">
         <v>44180.501388888886</v>
@@ -9171,7 +9174,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="8">
         <v>44180.502083333333</v>
@@ -9220,7 +9223,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="8">
         <v>44180.50277777778</v>
@@ -9269,7 +9272,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="8">
         <v>44180.503472222219</v>
@@ -9318,7 +9321,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="8">
         <v>44180.504166666666</v>
@@ -9367,7 +9370,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="8">
         <v>44180.504861111112</v>
@@ -9416,7 +9419,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="8">
         <v>44180.505555555559</v>
@@ -9465,7 +9468,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="8">
         <v>44180.506249999999</v>
@@ -9514,7 +9517,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="8">
         <v>44180.506944444445</v>
@@ -9563,7 +9566,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="8">
         <v>44180.507638888892</v>
@@ -9612,7 +9615,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="8">
         <v>44180.508333333331</v>
@@ -9661,7 +9664,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="8">
         <v>44180.509027777778</v>
@@ -9710,7 +9713,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="8">
         <v>44180.509722222225</v>
@@ -9759,7 +9762,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="8">
         <v>44180.510416666664</v>
@@ -9808,7 +9811,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="8">
         <v>44180.511111111111</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="8">
         <v>44180.511805555558</v>
@@ -9906,7 +9909,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="8">
         <v>44180.512499999997</v>
@@ -9955,7 +9958,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="8">
         <v>44180.513194444444</v>
@@ -10004,7 +10007,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="8">
         <v>44180.513888888891</v>
@@ -10053,7 +10056,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="8">
         <v>44180.51458333333</v>
@@ -10102,7 +10105,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="8">
         <v>44180.515277777777</v>
@@ -10151,7 +10154,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="8">
         <v>44180.515972222223</v>
@@ -10200,7 +10203,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="8">
         <v>44180.51666666667</v>
@@ -10249,7 +10252,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="8">
         <v>44180.517361111109</v>
@@ -10298,7 +10301,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="8">
         <v>44180.518055555556</v>
@@ -10347,7 +10350,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="8">
         <v>44180.518750000003</v>
@@ -10396,7 +10399,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="8">
         <v>44180.519444444442</v>
@@ -10445,7 +10448,7 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="8">
         <v>44180.520138888889</v>
@@ -10494,7 +10497,7 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="8">
         <v>44180.520833333336</v>
@@ -10543,7 +10546,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="8">
         <v>44180.521527777775</v>
@@ -10592,7 +10595,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="8">
         <v>44180.522222222222</v>
@@ -10641,7 +10644,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="8">
         <v>44180.522916666669</v>
@@ -10690,7 +10693,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="8">
         <v>44180.523611111108</v>
@@ -10739,7 +10742,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="8">
         <v>44180.524305555555</v>
@@ -10788,7 +10791,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="8">
         <v>44180.525000000001</v>
@@ -10837,7 +10840,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="8">
         <v>44180.525694444441</v>
@@ -10886,7 +10889,7 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="8">
         <v>44180.526388888888</v>
@@ -10935,7 +10938,7 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="8">
         <v>44180.527083333334</v>
@@ -10984,7 +10987,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="8">
         <v>44180.527777777781</v>
@@ -11033,7 +11036,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="8">
         <v>44180.52847222222</v>
@@ -11082,7 +11085,7 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="8">
         <v>44180.529166666667</v>
@@ -11131,7 +11134,7 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="8">
         <v>44180.529861111114</v>
@@ -11180,7 +11183,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="8">
         <v>44180.530555555553</v>
@@ -11229,7 +11232,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="8">
         <v>44180.53125</v>
@@ -11278,7 +11281,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="8">
         <v>44180.531944444447</v>
@@ -11327,7 +11330,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="8">
         <v>44180.532638888886</v>
@@ -11376,7 +11379,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="8">
         <v>44180.533333333333</v>
@@ -11425,7 +11428,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="8">
         <v>44180.53402777778</v>
@@ -11474,7 +11477,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="8">
         <v>44180.534722222219</v>
@@ -11523,7 +11526,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="8">
         <v>44180.535416666666</v>
@@ -11572,7 +11575,7 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="8">
         <v>44180.536111111112</v>
@@ -11621,7 +11624,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="8">
         <v>44180.536805555559</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="8">
         <v>44180.537499999999</v>
@@ -11719,7 +11722,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="8">
         <v>44180.538194444445</v>
@@ -11768,7 +11771,7 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="8">
         <v>44180.538888888892</v>
@@ -11817,7 +11820,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="8">
         <v>44180.539583333331</v>
@@ -11866,7 +11869,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="8">
         <v>44180.540277777778</v>
@@ -11915,7 +11918,7 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="8">
         <v>44180.540972222225</v>
@@ -11964,7 +11967,7 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="8">
         <v>44180.541666666664</v>
@@ -12013,7 +12016,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="8">
         <v>44180.542361111111</v>
@@ -12062,7 +12065,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="8">
         <v>44180.543055555558</v>
@@ -12111,7 +12114,7 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="8">
         <v>44180.543749999997</v>
@@ -12160,7 +12163,7 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="8">
         <v>44180.544444444444</v>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="8">
         <v>44180.545138888891</v>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="8">
         <v>44180.54583333333</v>
@@ -12307,7 +12310,7 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="8">
         <v>44180.546527777777</v>
@@ -12356,7 +12359,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="8">
         <v>44180.547222222223</v>
@@ -12405,7 +12408,7 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="8">
         <v>44180.54791666667</v>
@@ -12454,7 +12457,7 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="8">
         <v>44180.548611111109</v>
@@ -12503,7 +12506,7 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="8">
         <v>44180.549305555556</v>
@@ -12552,7 +12555,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="8">
         <v>44180.55</v>
@@ -12601,7 +12604,7 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="8">
         <v>44180.550694444442</v>
@@ -12650,7 +12653,7 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="8">
         <v>44180.551388888889</v>
@@ -12699,7 +12702,7 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="8">
         <v>44180.552083333336</v>
@@ -12748,7 +12751,7 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="8">
         <v>44180.552777777775</v>
@@ -12797,7 +12800,7 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="8">
         <v>44180.553472222222</v>
@@ -12846,7 +12849,7 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="8">
         <v>44180.554166666669</v>
@@ -12895,7 +12898,7 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="8">
         <v>44180.554861111108</v>
@@ -12944,7 +12947,7 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="8">
         <v>44180.555555555555</v>
@@ -12993,7 +12996,7 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="8">
         <v>44180.556250000001</v>
@@ -13042,7 +13045,7 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="8">
         <v>44180.556944444441</v>
@@ -13091,7 +13094,7 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="8">
         <v>44180.557638888888</v>
@@ -13140,7 +13143,7 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="8">
         <v>44180.558333333334</v>
@@ -13189,7 +13192,7 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="8">
         <v>44180.559027777781</v>
@@ -13238,7 +13241,7 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="8">
         <v>44180.55972222222</v>
@@ -13287,7 +13290,7 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="8">
         <v>44180.560416666667</v>
@@ -13336,7 +13339,7 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="8">
         <v>44180.561111111114</v>
@@ -13385,7 +13388,7 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="8">
         <v>44180.561805555553</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="8">
         <v>44180.5625</v>
@@ -13483,7 +13486,7 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="8">
         <v>44180.563194444447</v>
@@ -13532,7 +13535,7 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="8">
         <v>44180.563888888886</v>
@@ -13581,7 +13584,7 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="8">
         <v>44180.564583333333</v>
@@ -13630,7 +13633,7 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="8">
         <v>44180.56527777778</v>
@@ -13679,7 +13682,7 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="8">
         <v>44180.565972222219</v>
@@ -13728,7 +13731,7 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="8">
         <v>44180.566666666666</v>
@@ -13777,7 +13780,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="8">
         <v>44180.567361111112</v>
@@ -13826,7 +13829,7 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="8">
         <v>44180.568055555559</v>
@@ -13875,7 +13878,7 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="8">
         <v>44180.568749999999</v>
@@ -13924,7 +13927,7 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="8">
         <v>44180.569444444445</v>
@@ -13973,7 +13976,7 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="8">
         <v>44180.570138888892</v>
@@ -14022,7 +14025,7 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="8">
         <v>44180.570833333331</v>
@@ -14071,7 +14074,7 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="8">
         <v>44180.571527777778</v>
@@ -14120,7 +14123,7 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="8">
         <v>44180.572222222225</v>
@@ -14169,7 +14172,7 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="8">
         <v>44180.572916666664</v>
@@ -14218,7 +14221,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="8">
         <v>44180.573611111111</v>
@@ -14267,7 +14270,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="8">
         <v>44180.574305555558</v>
@@ -14316,7 +14319,7 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="8">
         <v>44180.574999999997</v>
@@ -14365,7 +14368,7 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="8">
         <v>44180.575694444444</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="8">
         <v>44180.576388888891</v>
@@ -14463,7 +14466,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="8">
         <v>44180.57708333333</v>
@@ -14512,7 +14515,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="8">
         <v>44180.577777777777</v>
@@ -14561,7 +14564,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="8">
         <v>44180.578472222223</v>
@@ -14610,7 +14613,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="8">
         <v>44180.57916666667</v>
@@ -14659,7 +14662,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="8">
         <v>44180.579861111109</v>
@@ -14708,7 +14711,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="8">
         <v>44180.580555555556</v>
@@ -14757,7 +14760,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="8">
         <v>44180.581250000003</v>
@@ -14806,7 +14809,7 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="8">
         <v>44180.581944444442</v>
@@ -14855,7 +14858,7 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="8">
         <v>44180.582638888889</v>
@@ -14904,7 +14907,7 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="8">
         <v>44180.583333333336</v>
@@ -14953,7 +14956,7 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="8">
         <v>44180.584027777775</v>
@@ -15002,7 +15005,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="8">
         <v>44180.584722222222</v>
@@ -15051,7 +15054,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="8">
         <v>44180.585416666669</v>
@@ -15100,7 +15103,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="8">
         <v>44180.586111111108</v>
@@ -15149,7 +15152,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="8">
         <v>44180.586805555555</v>
@@ -15198,7 +15201,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="8">
         <v>44180.587500000001</v>
@@ -15247,7 +15250,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="8">
         <v>44180.588194444441</v>
@@ -15296,7 +15299,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="8">
         <v>44180.588888888888</v>
@@ -15345,7 +15348,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="8">
         <v>44180.589583333334</v>
@@ -15394,7 +15397,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="8">
         <v>44180.590277777781</v>
@@ -15443,7 +15446,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="8">
         <v>44180.59097222222</v>
@@ -15492,7 +15495,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="8">
         <v>44180.591666666667</v>
@@ -15541,7 +15544,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="8">
         <v>44180.592361111114</v>
@@ -15590,7 +15593,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="8">
         <v>44180.593055555553</v>
@@ -15639,7 +15642,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="8">
         <v>44180.59375</v>
@@ -15688,7 +15691,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="8">
         <v>44180.594444444447</v>
@@ -15737,7 +15740,7 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="8">
         <v>44180.595138888886</v>
@@ -15786,7 +15789,7 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="8">
         <v>44180.595833333333</v>
@@ -15835,7 +15838,7 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="8">
         <v>44180.59652777778</v>
@@ -15884,7 +15887,7 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="8">
         <v>44180.597222222219</v>
@@ -15933,7 +15936,7 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="8">
         <v>44180.597916666666</v>
@@ -15982,7 +15985,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="8">
         <v>44180.598611111112</v>
@@ -16031,7 +16034,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="8">
         <v>44180.599305555559</v>
@@ -16080,7 +16083,7 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="8">
         <v>44180.6</v>
@@ -16129,7 +16132,7 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="8">
         <v>44180.600694444445</v>
@@ -16178,7 +16181,7 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="8">
         <v>44180.601388888892</v>
@@ -16227,7 +16230,7 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="8">
         <v>44180.602083333331</v>
@@ -16276,7 +16279,7 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="8">
         <v>44180.602777777778</v>
@@ -16325,7 +16328,7 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="8">
         <v>44180.603472222225</v>
@@ -16374,7 +16377,7 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="8">
         <v>44180.604166666664</v>
@@ -16423,7 +16426,7 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="8">
         <v>44180.604861111111</v>
@@ -16472,7 +16475,7 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="8">
         <v>44180.605555555558</v>
@@ -16521,7 +16524,7 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="8">
         <v>44180.606249999997</v>
@@ -16570,7 +16573,7 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="8">
         <v>44180.606944444444</v>
@@ -16619,7 +16622,7 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="8">
         <v>44180.607638888891</v>
@@ -16668,7 +16671,7 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="8">
         <v>44180.60833333333</v>
@@ -16717,7 +16720,7 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="8">
         <v>44180.609027777777</v>
@@ -16766,7 +16769,7 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="8">
         <v>44180.609722222223</v>
@@ -16815,7 +16818,7 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="8">
         <v>44180.61041666667</v>
@@ -16864,7 +16867,7 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="8">
         <v>44180.611111111109</v>
@@ -16913,7 +16916,7 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="8">
         <v>44180.611805555556</v>
@@ -16962,7 +16965,7 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="8">
         <v>44180.612500000003</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="8">
         <v>44180.613194444442</v>
@@ -17060,7 +17063,7 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="8">
         <v>44180.613888888889</v>
@@ -17109,7 +17112,7 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="8">
         <v>44180.614583333336</v>
@@ -17158,7 +17161,7 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="8">
         <v>44180.615277777775</v>
@@ -17207,7 +17210,7 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="8">
         <v>44180.615972222222</v>
@@ -17256,7 +17259,7 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="8">
         <v>44180.616666666669</v>
@@ -17305,7 +17308,7 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="8">
         <v>44180.617361111108</v>
@@ -17354,7 +17357,7 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="8">
         <v>44180.618055555555</v>
@@ -17403,7 +17406,7 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="8">
         <v>44180.618750000001</v>
@@ -17452,7 +17455,7 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="8">
         <v>44180.619444444441</v>
@@ -17501,7 +17504,7 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="8">
         <v>44180.620138888888</v>
@@ -17550,7 +17553,7 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="8">
         <v>44180.620833333334</v>
@@ -17599,7 +17602,7 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="8">
         <v>44180.621527777781</v>
@@ -17648,7 +17651,7 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="8">
         <v>44180.62222222222</v>
@@ -17697,7 +17700,7 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="8">
         <v>44180.622916666667</v>
@@ -17746,7 +17749,7 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="8">
         <v>44180.623611111114</v>
@@ -17795,7 +17798,7 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="8">
         <v>44180.624305555553</v>
@@ -17844,7 +17847,7 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="8">
         <v>44180.625</v>
@@ -17893,7 +17896,7 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="8">
         <v>44180.625694444447</v>
@@ -17942,7 +17945,7 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="8">
         <v>44180.626388888886</v>
@@ -17991,7 +17994,7 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="8">
         <v>44180.627083333333</v>
@@ -18040,7 +18043,7 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="8">
         <v>44180.62777777778</v>
@@ -18089,7 +18092,7 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="8">
         <v>44180.628472222219</v>
@@ -18138,7 +18141,7 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="8">
         <v>44180.629166666666</v>
@@ -18187,7 +18190,7 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="8">
         <v>44180.629861111112</v>
@@ -18236,7 +18239,7 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="8">
         <v>44180.630555555559</v>
@@ -18285,7 +18288,7 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="8">
         <v>44180.631249999999</v>
@@ -18334,7 +18337,7 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="8">
         <v>44180.631944444445</v>
@@ -18383,7 +18386,7 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="8">
         <v>44180.632638888892</v>
@@ -18432,7 +18435,7 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="8">
         <v>44180.633333333331</v>
@@ -18481,7 +18484,7 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="8">
         <v>44180.634027777778</v>
@@ -18530,7 +18533,7 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="8">
         <v>44180.634722222225</v>
@@ -18579,7 +18582,7 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="8">
         <v>44180.635416666664</v>
@@ -18628,7 +18631,7 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="8">
         <v>44180.636111111111</v>
@@ -18677,7 +18680,7 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="8">
         <v>44180.636805555558</v>
@@ -18726,7 +18729,7 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="8">
         <v>44180.637499999997</v>
@@ -18775,7 +18778,7 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="8">
         <v>44180.638194444444</v>
@@ -18824,7 +18827,7 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="8">
         <v>44180.638888888891</v>
@@ -18873,7 +18876,7 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="8">
         <v>44180.63958333333</v>
@@ -18922,7 +18925,7 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="8">
         <v>44180.640277777777</v>
@@ -18971,7 +18974,7 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="8">
         <v>44180.640972222223</v>
@@ -19020,7 +19023,7 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="8">
         <v>44180.64166666667</v>
@@ -19069,7 +19072,7 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="8">
         <v>44180.642361111109</v>
@@ -19118,7 +19121,7 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="8">
         <v>44180.643055555556</v>
@@ -19167,7 +19170,7 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="8">
         <v>44180.643750000003</v>
@@ -19216,7 +19219,7 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="8">
         <v>44180.644444444442</v>
@@ -19265,7 +19268,7 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="8">
         <v>44180.645138888889</v>
@@ -19314,7 +19317,7 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="8">
         <v>44180.645833333336</v>
@@ -19363,7 +19366,7 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="8">
         <v>44180.646527777775</v>
@@ -19412,7 +19415,7 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="8">
         <v>44180.647222222222</v>
@@ -19461,7 +19464,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="8">
         <v>44180.647916666669</v>
@@ -19510,7 +19513,7 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="8">
         <v>44180.648611111108</v>
@@ -19559,7 +19562,7 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="8">
         <v>44180.649305555555</v>
@@ -19608,7 +19611,7 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="8">
         <v>44180.65</v>
@@ -19657,7 +19660,7 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="8">
         <v>44180.650694444441</v>
@@ -19706,7 +19709,7 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="8">
         <v>44180.651388888888</v>
@@ -19755,7 +19758,7 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="8">
         <v>44180.652083333334</v>
@@ -19804,7 +19807,7 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="8">
         <v>44180.652777777781</v>
@@ -19853,7 +19856,7 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="8">
         <v>44180.65347222222</v>
@@ -19902,7 +19905,7 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="8">
         <v>44180.654166666667</v>
@@ -19951,7 +19954,7 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="8">
         <v>44180.654861111114</v>
@@ -20000,7 +20003,7 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="8">
         <v>44180.655555555553</v>
@@ -20049,7 +20052,7 @@
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="8">
         <v>44180.65625</v>
@@ -20098,7 +20101,7 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="8">
         <v>44180.656944444447</v>
@@ -20147,7 +20150,7 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="8">
         <v>44180.657638888886</v>
@@ -20196,7 +20199,7 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="8">
         <v>44180.658333333333</v>
@@ -20245,7 +20248,7 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="8">
         <v>44180.65902777778</v>
@@ -20294,7 +20297,7 @@
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="8">
         <v>44180.659722222219</v>
@@ -20343,7 +20346,7 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="8">
         <v>44180.660416666666</v>
@@ -20392,7 +20395,7 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="8">
         <v>44180.661111111112</v>
@@ -20441,7 +20444,7 @@
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="8">
         <v>44180.661805555559</v>
@@ -20490,7 +20493,7 @@
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="8">
         <v>44180.662499999999</v>
@@ -20539,7 +20542,7 @@
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="8">
         <v>44180.663194444445</v>
@@ -20588,7 +20591,7 @@
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="8">
         <v>44180.663888888892</v>
@@ -20637,7 +20640,7 @@
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="8">
         <v>44180.664583333331</v>
@@ -20686,7 +20689,7 @@
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="8">
         <v>44180.665277777778</v>
@@ -20735,7 +20738,7 @@
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="8">
         <v>44180.665972222225</v>
@@ -20784,7 +20787,7 @@
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="8">
         <v>44180.666666666664</v>
